--- a/1. Selled_sentence/chungduong0988_11.5.2024/Selled sentence.xlsx
+++ b/1. Selled_sentence/chungduong0988_11.5.2024/Selled sentence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. Sticker\3. Git project\project_chung0988\1. Selled_sentence\chungduong0988_11.5.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="326">
   <si>
     <t>ST20231219_162915</t>
   </si>
@@ -760,9 +760,6 @@
     <t>SKU20240323_043220</t>
   </si>
   <si>
-    <t>SKU20240414_094453</t>
-  </si>
-  <si>
     <t>SKU20240508_190723</t>
   </si>
   <si>
@@ -790,9 +787,6 @@
     <t>SKU20240413_224705</t>
   </si>
   <si>
-    <t>SKU20240321_062603</t>
-  </si>
-  <si>
     <t>SKU20240414_094514</t>
   </si>
   <si>
@@ -854,6 +848,162 @@
   </si>
   <si>
     <t>SKU20240410_222307</t>
+  </si>
+  <si>
+    <t>Please Be Patient, I'm Actually Three Dogs in a Trench Coat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Don't honk at me My dads is Dead</t>
+  </si>
+  <si>
+    <t>Facts Don't Care About Your Feelings</t>
+  </si>
+  <si>
+    <t>You are not Immune to Propaganda</t>
+  </si>
+  <si>
+    <t>Stop Pretending Your Racism is Patriotism</t>
+  </si>
+  <si>
+    <t>Wife and Dog Missing Reward for Dog</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If It's Too Loud You're Too Old</t>
+  </si>
+  <si>
+    <t>Jesus Loves The Hell Out of You</t>
+  </si>
+  <si>
+    <t>HIGH Class White Trash</t>
+  </si>
+  <si>
+    <t>we Brake for Nobody</t>
+  </si>
+  <si>
+    <t>Left Lane is for Passing</t>
+  </si>
+  <si>
+    <t>Well Behaved Women Rarely Make History</t>
+  </si>
+  <si>
+    <t>One Day at A Time</t>
+  </si>
+  <si>
+    <t>i Like Older Woman</t>
+  </si>
+  <si>
+    <t>Skateboarding is not a Crime</t>
+  </si>
+  <si>
+    <t>Don't Touch me Peasant</t>
+  </si>
+  <si>
+    <t>I Am A Veteran My Oath Never Expires</t>
+  </si>
+  <si>
+    <t>Embrace The Suck</t>
+  </si>
+  <si>
+    <t>The Closer You Get The Slower I Drive</t>
+  </si>
+  <si>
+    <t>GET Off My Ass Before I Inflate Your AIRBAGS</t>
+  </si>
+  <si>
+    <t>I Will Not Be Stopped</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Your Government is Lying to You</t>
+  </si>
+  <si>
+    <t>Just Pass Me This is as Good as it gets</t>
+  </si>
+  <si>
+    <t>Please Be Patient Blonde Driver</t>
+  </si>
+  <si>
+    <t>I Brake for Tailgaters</t>
+  </si>
+  <si>
+    <t>I'm so Gay i Cant Even Drive Straight</t>
+  </si>
+  <si>
+    <t>But Did You Document it</t>
+  </si>
+  <si>
+    <t>I'm Retired go Around me</t>
+  </si>
+  <si>
+    <t>I Hate My Ex Wife</t>
+  </si>
+  <si>
+    <t>I'm not Drunk I'm Passing Out Snacks</t>
+  </si>
+  <si>
+    <t>Free Rides for Goth Girls</t>
+  </si>
+  <si>
+    <t>Question Authority</t>
+  </si>
+  <si>
+    <t>only Gay cops Pull me Over</t>
+  </si>
+  <si>
+    <t>one Nation Under god</t>
+  </si>
+  <si>
+    <t>I Have No Idea What I'm Doing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Life Begins at Conception</t>
+  </si>
+  <si>
+    <t>Make America Grateful Again</t>
+  </si>
+  <si>
+    <t>if it is endurable Then Endure it</t>
+  </si>
+  <si>
+    <t>Make America Emo Again</t>
+  </si>
+  <si>
+    <t>Happiness is an Inside Job</t>
+  </si>
+  <si>
+    <t>Sorry Officer I Thought You Wanted to Race</t>
+  </si>
+  <si>
+    <t>Huge Financial Burden On Board</t>
+  </si>
+  <si>
+    <t>We Rise by Lifting Others</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Make Racists Afraid Again</t>
+  </si>
+  <si>
+    <t>No Weapon Formed Against Me Shall Prosper</t>
+  </si>
+  <si>
+    <t>Remember Who You are</t>
+  </si>
+  <si>
+    <t>Please Be Patient I’m Legally Blind</t>
+  </si>
+  <si>
+    <t>i Never Lose i Either Win or Learn</t>
+  </si>
+  <si>
+    <t>It's not a Religion It's a Relationship</t>
+  </si>
+  <si>
+    <t>SKU20240415_201540</t>
+  </si>
+  <si>
+    <t>If You Think Education is Expensive, Try Ignorance</t>
+  </si>
+  <si>
+    <t>SKU20240415_201550</t>
   </si>
 </sst>
 </file>
@@ -2735,10 +2885,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C173"/>
+  <dimension ref="A1:C171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2759,424 +2909,544 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="8" t="s">
+        <v>274</v>
+      </c>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>276</v>
+      </c>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>277</v>
+      </c>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>278</v>
+      </c>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>279</v>
+      </c>
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>280</v>
+      </c>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>281</v>
+      </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>282</v>
+      </c>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>283</v>
+      </c>
       <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>284</v>
+      </c>
       <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>213</v>
+      </c>
       <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>285</v>
+      </c>
       <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>286</v>
+      </c>
       <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>197</v>
+      </c>
       <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="8" t="s">
+        <v>287</v>
+      </c>
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="8" t="s">
+        <v>288</v>
+      </c>
       <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>289</v>
+      </c>
       <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="8" t="s">
+        <v>290</v>
+      </c>
       <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="8" t="s">
+        <v>210</v>
+      </c>
       <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>291</v>
+      </c>
       <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="8" t="s">
+        <v>292</v>
+      </c>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="8" t="s">
+        <v>293</v>
+      </c>
       <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="8" t="s">
+        <v>294</v>
+      </c>
       <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="8" t="s">
+        <v>197</v>
+      </c>
       <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="8" t="s">
+        <v>295</v>
+      </c>
       <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="B28" s="8"/>
+      <c r="B28" s="8" t="s">
+        <v>296</v>
+      </c>
       <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="B29" s="8"/>
+      <c r="B29" s="8" t="s">
+        <v>297</v>
+      </c>
       <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="B30" s="8"/>
+      <c r="B30" s="8" t="s">
+        <v>298</v>
+      </c>
       <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="8" t="s">
+        <v>279</v>
+      </c>
       <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="B32" s="8"/>
+      <c r="B32" s="8" t="s">
+        <v>299</v>
+      </c>
       <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="B33" s="8"/>
+      <c r="B33" s="8" t="s">
+        <v>300</v>
+      </c>
       <c r="C33" s="6"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B34" s="8"/>
+      <c r="B34" s="8" t="s">
+        <v>301</v>
+      </c>
       <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="B35" s="8"/>
+      <c r="B35" s="8" t="s">
+        <v>302</v>
+      </c>
       <c r="C35" s="6"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="B36" s="8"/>
+      <c r="B36" s="8" t="s">
+        <v>303</v>
+      </c>
       <c r="C36" s="6"/>
     </row>
     <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="B37" s="8"/>
+      <c r="B37" s="8" t="s">
+        <v>183</v>
+      </c>
       <c r="C37" s="6"/>
     </row>
     <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="B38" s="8"/>
+      <c r="B38" s="8" t="s">
+        <v>304</v>
+      </c>
       <c r="C38" s="6"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="B39" s="8"/>
+      <c r="B39" s="8" t="s">
+        <v>305</v>
+      </c>
       <c r="C39" s="6"/>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="B40" s="8"/>
+      <c r="B40" s="8" t="s">
+        <v>303</v>
+      </c>
       <c r="C40" s="6"/>
     </row>
     <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="B41" s="8"/>
+      <c r="B41" s="8" t="s">
+        <v>306</v>
+      </c>
       <c r="C41" s="6"/>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="B42" s="8"/>
+      <c r="B42" s="8" t="s">
+        <v>307</v>
+      </c>
       <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="B43" s="8"/>
+      <c r="B43" s="8" t="s">
+        <v>308</v>
+      </c>
       <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="B44" s="8"/>
+      <c r="B44" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="C44" s="6"/>
     </row>
     <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="B45" s="8"/>
+      <c r="B45" s="8" t="s">
+        <v>309</v>
+      </c>
       <c r="C45" s="6"/>
     </row>
     <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="B46" s="8"/>
+      <c r="B46" s="8" t="s">
+        <v>310</v>
+      </c>
       <c r="C46" s="6"/>
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="B47" s="8"/>
+      <c r="B47" s="8" t="s">
+        <v>311</v>
+      </c>
       <c r="C47" s="6"/>
     </row>
     <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="B48" s="8"/>
+      <c r="B48" s="8" t="s">
+        <v>312</v>
+      </c>
       <c r="C48" s="6"/>
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="B49" s="8"/>
+      <c r="B49" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="C49" s="6"/>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="B50" s="8"/>
+      <c r="B50" s="8" t="s">
+        <v>313</v>
+      </c>
       <c r="C50" s="6"/>
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="B51" s="8"/>
+      <c r="B51" s="8" t="s">
+        <v>314</v>
+      </c>
       <c r="C51" s="6"/>
     </row>
     <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="B52" s="8"/>
+      <c r="B52" s="8" t="s">
+        <v>315</v>
+      </c>
       <c r="C52" s="6"/>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="B53" s="8"/>
+      <c r="B53" s="8" t="s">
+        <v>179</v>
+      </c>
       <c r="C53" s="6"/>
     </row>
     <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="B54" s="8"/>
+      <c r="B54" s="8" t="s">
+        <v>316</v>
+      </c>
       <c r="C54" s="6"/>
     </row>
     <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="B55" s="8"/>
+      <c r="B55" s="8" t="s">
+        <v>317</v>
+      </c>
       <c r="C55" s="6"/>
     </row>
     <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="B56" s="8"/>
+      <c r="B56" s="8" t="s">
+        <v>318</v>
+      </c>
       <c r="C56" s="6"/>
     </row>
     <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="8" t="s">
+        <v>319</v>
+      </c>
       <c r="C57" s="6"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="B58" s="8"/>
+      <c r="B58" s="8" t="s">
+        <v>320</v>
+      </c>
       <c r="C58" s="6"/>
     </row>
     <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="B59" s="8"/>
+      <c r="B59" s="8" t="s">
+        <v>321</v>
+      </c>
       <c r="C59" s="6"/>
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="B60" s="8"/>
+      <c r="A60" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>322</v>
+      </c>
       <c r="C60" s="6"/>
     </row>
     <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="B61" s="8"/>
+      <c r="A61" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>324</v>
+      </c>
       <c r="C61" s="6"/>
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3505,12 +3775,12 @@
       <c r="C126" s="6"/>
     </row>
     <row r="127" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="21"/>
+      <c r="A127" s="25"/>
       <c r="B127" s="8"/>
       <c r="C127" s="6"/>
     </row>
     <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="21"/>
+      <c r="A128" s="25"/>
       <c r="B128" s="8"/>
       <c r="C128" s="6"/>
     </row>
@@ -3579,13 +3849,13 @@
       <c r="B141" s="8"/>
       <c r="C141" s="6"/>
     </row>
-    <row r="142" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="25"/>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="20"/>
       <c r="B142" s="8"/>
       <c r="C142" s="6"/>
     </row>
-    <row r="143" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="25"/>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="20"/>
       <c r="B143" s="8"/>
       <c r="C143" s="6"/>
     </row>
@@ -3728,16 +3998,6 @@
       <c r="A171" s="20"/>
       <c r="B171" s="8"/>
       <c r="C171" s="6"/>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="20"/>
-      <c r="B172" s="8"/>
-      <c r="C172" s="6"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="20"/>
-      <c r="B173" s="8"/>
-      <c r="C173" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1. Selled_sentence/chungduong0988_11.5.2024/Selled sentence.xlsx
+++ b/1. Selled_sentence/chungduong0988_11.5.2024/Selled sentence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. Sticker\3. Git project\project_chung0988\1. Selled_sentence\chungduong0988_11.5.2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\autnp\Documents\1. Doc\python learning\Temp\project_chung0988\1. Selled_sentence\chungduong0988_11.5.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="339">
   <si>
     <t>ST20231219_162915</t>
   </si>
@@ -1004,6 +1004,45 @@
   </si>
   <si>
     <t>SKU20240415_201550</t>
+  </si>
+  <si>
+    <t>SKU20240323_043209</t>
+  </si>
+  <si>
+    <t>SKU20240415_201542</t>
+  </si>
+  <si>
+    <t>SKU20240328_054246</t>
+  </si>
+  <si>
+    <t>SKU20240430_195808</t>
+  </si>
+  <si>
+    <t>SKU20240420_151224</t>
+  </si>
+  <si>
+    <t>SKU20240420_120317</t>
+  </si>
+  <si>
+    <t>Make Racists Afraid Again</t>
+  </si>
+  <si>
+    <t>I'm Tired of This Grandpa</t>
+  </si>
+  <si>
+    <t>Old Driver Please Be Patient</t>
+  </si>
+  <si>
+    <t>I Brake for Goth Girls</t>
+  </si>
+  <si>
+    <t>As Far As I Know I'm Delightful</t>
+  </si>
+  <si>
+    <t>Trust God Not Government</t>
+  </si>
+  <si>
+    <t>Buckle UP i Want to Try Something</t>
   </si>
 </sst>
 </file>
@@ -1030,26 +1069,31 @@
       <sz val="8"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF0066CC"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFFF9900"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1200,7 +1244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1276,6 +1320,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1563,14 +1610,14 @@
       <selection sqref="A1:C173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="52.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.1328125" customWidth="1"/>
+    <col min="2" max="2" width="52.3984375" customWidth="1"/>
+    <col min="3" max="3" width="23.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>172</v>
       </c>
@@ -1581,7 +1628,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -1592,7 +1639,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -1601,7 +1648,7 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
@@ -1610,7 +1657,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
@@ -1619,7 +1666,7 @@
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
@@ -1628,7 +1675,7 @@
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
@@ -1639,7 +1686,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -1648,7 +1695,7 @@
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
@@ -1657,7 +1704,7 @@
       </c>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
@@ -1666,7 +1713,7 @@
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
@@ -1675,7 +1722,7 @@
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -1684,7 +1731,7 @@
       </c>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -1693,7 +1740,7 @@
       </c>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
@@ -1702,7 +1749,7 @@
       </c>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
@@ -1713,7 +1760,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
@@ -1724,7 +1771,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="10" t="s">
         <v>15</v>
       </c>
@@ -1733,7 +1780,7 @@
       </c>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.45">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -1742,7 +1789,7 @@
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
         <v>17</v>
       </c>
@@ -1751,7 +1798,7 @@
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
         <v>18</v>
       </c>
@@ -1760,7 +1807,7 @@
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="14" t="s">
         <v>19</v>
       </c>
@@ -1769,7 +1816,7 @@
       </c>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="10" t="s">
         <v>20</v>
       </c>
@@ -1778,7 +1825,7 @@
       </c>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="s">
         <v>21</v>
       </c>
@@ -1787,7 +1834,7 @@
       </c>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
         <v>22</v>
       </c>
@@ -1796,7 +1843,7 @@
       </c>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="10" t="s">
         <v>23</v>
       </c>
@@ -1805,7 +1852,7 @@
       </c>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="10" t="s">
         <v>24</v>
       </c>
@@ -1814,7 +1861,7 @@
       </c>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="10" t="s">
         <v>25</v>
       </c>
@@ -1823,7 +1870,7 @@
       </c>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="10" t="s">
         <v>26</v>
       </c>
@@ -1832,7 +1879,7 @@
       </c>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="10" t="s">
         <v>27</v>
       </c>
@@ -1841,7 +1888,7 @@
       </c>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="10" t="s">
         <v>28</v>
       </c>
@@ -1850,7 +1897,7 @@
       </c>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="10" t="s">
         <v>29</v>
       </c>
@@ -1859,7 +1906,7 @@
       </c>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="10" t="s">
         <v>30</v>
       </c>
@@ -1868,7 +1915,7 @@
       </c>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="10" t="s">
         <v>31</v>
       </c>
@@ -1877,7 +1924,7 @@
       </c>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
         <v>32</v>
       </c>
@@ -1886,21 +1933,21 @@
       </c>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="10" t="s">
         <v>35</v>
       </c>
@@ -1909,7 +1956,7 @@
       </c>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="10" t="s">
         <v>36</v>
       </c>
@@ -1918,7 +1965,7 @@
       </c>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="10" t="s">
         <v>37</v>
       </c>
@@ -1929,7 +1976,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="10" t="s">
         <v>38</v>
       </c>
@@ -1938,7 +1985,7 @@
       </c>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="10" t="s">
         <v>39</v>
       </c>
@@ -1947,7 +1994,7 @@
       </c>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="10" t="s">
         <v>40</v>
       </c>
@@ -1956,7 +2003,7 @@
       </c>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="10" t="s">
         <v>41</v>
       </c>
@@ -1965,7 +2012,7 @@
       </c>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="10" t="s">
         <v>42</v>
       </c>
@@ -1974,903 +2021,903 @@
       </c>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="6"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="6"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="6"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="6"/>
     </row>
-    <row r="57" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="6"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="6"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="10" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="6"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="6"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="10" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="6"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="6"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="6"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="6"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="6"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="6"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="6"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="6"/>
     </row>
-    <row r="76" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="21" x14ac:dyDescent="0.45">
       <c r="A76" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="6"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="6"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="6"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="6"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="10" t="s">
         <v>78</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="6"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="6"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="10" t="s">
         <v>80</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="6"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="6"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="10" t="s">
         <v>82</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="6"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="10" t="s">
         <v>83</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="6"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="6"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="10" t="s">
         <v>85</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="6"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="6"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="10" t="s">
         <v>87</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="6"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="10" t="s">
         <v>88</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="6"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="10" t="s">
         <v>89</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="6"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="11" t="s">
         <v>90</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="6"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="6"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="10" t="s">
         <v>92</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="6"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="10" t="s">
         <v>93</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="6"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="6"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="10" t="s">
         <v>95</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="6"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="10" t="s">
         <v>96</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="6"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="10" t="s">
         <v>97</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="6"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="10" t="s">
         <v>98</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="6"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="6"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="16" t="s">
         <v>100</v>
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="6"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="17" t="s">
         <v>101</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="6"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="17" t="s">
         <v>102</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="6"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="6"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="17" t="s">
         <v>104</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="6"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="17" t="s">
         <v>105</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="17" t="s">
         <v>106</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="17" t="s">
         <v>107</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="17" t="s">
         <v>108</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="6"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="17" t="s">
         <v>109</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="6"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="17" t="s">
         <v>110</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="6"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="17" t="s">
         <v>111</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="6"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="17" t="s">
         <v>112</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="6"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="17" t="s">
         <v>113</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="6"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="17" t="s">
         <v>114</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="6"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="17" t="s">
         <v>115</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="6"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="17" t="s">
         <v>116</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="6"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="17" t="s">
         <v>117</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="6"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="17" t="s">
         <v>118</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="6"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="17" t="s">
         <v>119</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="6"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" s="17" t="s">
         <v>120</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="6"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" s="17" t="s">
         <v>121</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="6"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="17" t="s">
         <v>122</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="6"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" s="17" t="s">
         <v>123</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="6"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="17" t="s">
         <v>124</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="6"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" s="17" t="s">
         <v>125</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="6"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" s="17" t="s">
         <v>126</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="6"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" s="17" t="s">
         <v>127</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="6"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" s="17" t="s">
         <v>128</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="6"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" s="17" t="s">
         <v>129</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="6"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" s="17" t="s">
         <v>130</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="6"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" s="17" t="s">
         <v>131</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="6"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" s="17" t="s">
         <v>132</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="6"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" s="17" t="s">
         <v>133</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="6"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" s="17" t="s">
         <v>134</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="6"/>
     </row>
-    <row r="137" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" s="17" t="s">
         <v>135</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="6"/>
     </row>
-    <row r="138" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" s="17" t="s">
         <v>136</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="6"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" s="17" t="s">
         <v>137</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="6"/>
     </row>
-    <row r="140" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" s="19" t="s">
         <v>138</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="6"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" s="17" t="s">
         <v>139</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="6"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" s="17" t="s">
         <v>140</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="6"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" s="17" t="s">
         <v>141</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="6"/>
     </row>
-    <row r="144" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" s="17" t="s">
         <v>142</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="6"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="6"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="6"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" s="18" t="s">
         <v>145</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="6"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" s="17" t="s">
         <v>146</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="6"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" s="17" t="s">
         <v>147</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="6"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" s="17" t="s">
         <v>148</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="6"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" s="17" t="s">
         <v>149</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="6"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" s="17" t="s">
         <v>150</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="6"/>
     </row>
-    <row r="153" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" s="17" t="s">
         <v>151</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="6"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" s="17" t="s">
         <v>152</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="6"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" s="17" t="s">
         <v>153</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="6"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" s="17" t="s">
         <v>154</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="6"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" s="17" t="s">
         <v>155</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="6"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" s="17" t="s">
         <v>156</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="6"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" s="17" t="s">
         <v>157</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="6"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" s="17" t="s">
         <v>158</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="6"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="6"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" s="17" t="s">
         <v>160</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="6"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" s="17" t="s">
         <v>161</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="6"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" s="17" t="s">
         <v>162</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="6"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" s="17" t="s">
         <v>163</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="6"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166" s="17" t="s">
         <v>164</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="6"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" s="17" t="s">
         <v>165</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="6"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" s="17" t="s">
         <v>166</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="6"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" s="17" t="s">
         <v>167</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="6"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170" s="17" t="s">
         <v>168</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="6"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171" s="17" t="s">
         <v>169</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="6"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172" s="17" t="s">
         <v>170</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="6"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173" s="17" t="s">
         <v>171</v>
       </c>
@@ -2885,20 +2932,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C171"/>
+  <dimension ref="A1:C165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.3984375" customWidth="1"/>
+    <col min="2" max="2" width="39.265625" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>172</v>
       </c>
@@ -2909,7 +2956,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="21" t="s">
         <v>216</v>
       </c>
@@ -2918,7 +2965,7 @@
       </c>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
         <v>217</v>
       </c>
@@ -2927,7 +2974,7 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="22" t="s">
         <v>218</v>
       </c>
@@ -2936,7 +2983,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="22" t="s">
         <v>219</v>
       </c>
@@ -2945,7 +2992,7 @@
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
         <v>220</v>
       </c>
@@ -2954,7 +3001,7 @@
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="22" t="s">
         <v>221</v>
       </c>
@@ -2963,7 +3010,7 @@
       </c>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="22" t="s">
         <v>222</v>
       </c>
@@ -2972,7 +3019,7 @@
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="22" t="s">
         <v>223</v>
       </c>
@@ -2981,7 +3028,7 @@
       </c>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="22" t="s">
         <v>224</v>
       </c>
@@ -2990,7 +3037,7 @@
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="22" t="s">
         <v>225</v>
       </c>
@@ -2999,7 +3046,7 @@
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="23" t="s">
         <v>226</v>
       </c>
@@ -3008,7 +3055,7 @@
       </c>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="22" t="s">
         <v>227</v>
       </c>
@@ -3017,7 +3064,7 @@
       </c>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="22" t="s">
         <v>228</v>
       </c>
@@ -3026,7 +3073,7 @@
       </c>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="22" t="s">
         <v>229</v>
       </c>
@@ -3035,7 +3082,7 @@
       </c>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="22" t="s">
         <v>230</v>
       </c>
@@ -3044,7 +3091,7 @@
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="22" t="s">
         <v>231</v>
       </c>
@@ -3053,7 +3100,7 @@
       </c>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="22" t="s">
         <v>232</v>
       </c>
@@ -3062,7 +3109,7 @@
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="22" t="s">
         <v>233</v>
       </c>
@@ -3071,7 +3118,7 @@
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="22" t="s">
         <v>234</v>
       </c>
@@ -3080,7 +3127,7 @@
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="22" t="s">
         <v>235</v>
       </c>
@@ -3089,7 +3136,7 @@
       </c>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="22" t="s">
         <v>236</v>
       </c>
@@ -3098,7 +3145,7 @@
       </c>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="22" t="s">
         <v>237</v>
       </c>
@@ -3107,7 +3154,7 @@
       </c>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="24" t="s">
         <v>238</v>
       </c>
@@ -3116,7 +3163,7 @@
       </c>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="22" t="s">
         <v>239</v>
       </c>
@@ -3125,7 +3172,7 @@
       </c>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="22" t="s">
         <v>240</v>
       </c>
@@ -3134,7 +3181,7 @@
       </c>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="24" t="s">
         <v>241</v>
       </c>
@@ -3143,7 +3190,7 @@
       </c>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="22" t="s">
         <v>242</v>
       </c>
@@ -3152,7 +3199,7 @@
       </c>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="22" t="s">
         <v>243</v>
       </c>
@@ -3161,7 +3208,7 @@
       </c>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="22" t="s">
         <v>244</v>
       </c>
@@ -3170,7 +3217,7 @@
       </c>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="22" t="s">
         <v>245</v>
       </c>
@@ -3179,7 +3226,7 @@
       </c>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="22" t="s">
         <v>246</v>
       </c>
@@ -3188,7 +3235,7 @@
       </c>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="22" t="s">
         <v>247</v>
       </c>
@@ -3197,7 +3244,7 @@
       </c>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="22" t="s">
         <v>248</v>
       </c>
@@ -3206,7 +3253,7 @@
       </c>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="22" t="s">
         <v>249</v>
       </c>
@@ -3215,7 +3262,7 @@
       </c>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="22" t="s">
         <v>250</v>
       </c>
@@ -3224,7 +3271,7 @@
       </c>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="22" t="s">
         <v>251</v>
       </c>
@@ -3233,7 +3280,7 @@
       </c>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="22" t="s">
         <v>252</v>
       </c>
@@ -3242,7 +3289,7 @@
       </c>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="22" t="s">
         <v>253</v>
       </c>
@@ -3251,7 +3298,7 @@
       </c>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="22" t="s">
         <v>254</v>
       </c>
@@ -3260,7 +3307,7 @@
       </c>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="22" t="s">
         <v>255</v>
       </c>
@@ -3269,7 +3316,7 @@
       </c>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="22" t="s">
         <v>256</v>
       </c>
@@ -3278,7 +3325,7 @@
       </c>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="22" t="s">
         <v>257</v>
       </c>
@@ -3287,7 +3334,7 @@
       </c>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="22" t="s">
         <v>258</v>
       </c>
@@ -3296,7 +3343,7 @@
       </c>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="22" t="s">
         <v>259</v>
       </c>
@@ -3305,7 +3352,7 @@
       </c>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="22" t="s">
         <v>260</v>
       </c>
@@ -3314,7 +3361,7 @@
       </c>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="22" t="s">
         <v>261</v>
       </c>
@@ -3323,7 +3370,7 @@
       </c>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="22" t="s">
         <v>262</v>
       </c>
@@ -3332,7 +3379,7 @@
       </c>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="22" t="s">
         <v>263</v>
       </c>
@@ -3341,7 +3388,7 @@
       </c>
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" s="22" t="s">
         <v>264</v>
       </c>
@@ -3350,7 +3397,7 @@
       </c>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="22" t="s">
         <v>265</v>
       </c>
@@ -3359,7 +3406,7 @@
       </c>
       <c r="C51" s="6"/>
     </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="22" t="s">
         <v>266</v>
       </c>
@@ -3368,7 +3415,7 @@
       </c>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="22" t="s">
         <v>267</v>
       </c>
@@ -3377,7 +3424,7 @@
       </c>
       <c r="C53" s="6"/>
     </row>
-    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="22" t="s">
         <v>268</v>
       </c>
@@ -3386,7 +3433,7 @@
       </c>
       <c r="C54" s="6"/>
     </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="22" t="s">
         <v>269</v>
       </c>
@@ -3395,7 +3442,7 @@
       </c>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="22" t="s">
         <v>270</v>
       </c>
@@ -3404,7 +3451,7 @@
       </c>
       <c r="C56" s="6"/>
     </row>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="22" t="s">
         <v>271</v>
       </c>
@@ -3413,7 +3460,7 @@
       </c>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="22" t="s">
         <v>272</v>
       </c>
@@ -3422,7 +3469,7 @@
       </c>
       <c r="C58" s="6"/>
     </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="22" t="s">
         <v>273</v>
       </c>
@@ -3431,7 +3478,7 @@
       </c>
       <c r="C59" s="6"/>
     </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="21" t="s">
         <v>323</v>
       </c>
@@ -3440,7 +3487,7 @@
       </c>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61" s="21" t="s">
         <v>325</v>
       </c>
@@ -3449,555 +3496,561 @@
       </c>
       <c r="C61" s="6"/>
     </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="21"/>
-      <c r="B62" s="8"/>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="C62" s="6"/>
     </row>
-    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="21"/>
-      <c r="B63" s="8"/>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="C63" s="6"/>
     </row>
-    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="21"/>
-      <c r="B64" s="8"/>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="21"/>
-      <c r="B65" s="8"/>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="C65" s="6"/>
     </row>
-    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21"/>
-      <c r="B66" s="8"/>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="21"/>
-      <c r="B67" s="8"/>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>335</v>
+      </c>
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="21"/>
-      <c r="B68" s="8"/>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>336</v>
+      </c>
       <c r="C68" s="6"/>
     </row>
-    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="21"/>
-      <c r="B69" s="8"/>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="C69" s="6"/>
     </row>
-    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="21"/>
-      <c r="B70" s="8"/>
+    <row r="70" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A70" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>338</v>
+      </c>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A71" s="21"/>
       <c r="B71" s="8"/>
       <c r="C71" s="6"/>
     </row>
-    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A72" s="21"/>
       <c r="B72" s="8"/>
       <c r="C72" s="6"/>
     </row>
-    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A73" s="21"/>
       <c r="B73" s="8"/>
       <c r="C73" s="6"/>
     </row>
-    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="21"/>
       <c r="B74" s="8"/>
       <c r="C74" s="6"/>
     </row>
-    <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="21"/>
       <c r="B75" s="8"/>
       <c r="C75" s="6"/>
     </row>
-    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A76" s="21"/>
       <c r="B76" s="8"/>
       <c r="C76" s="6"/>
     </row>
-    <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A77" s="21"/>
       <c r="B77" s="8"/>
       <c r="C77" s="6"/>
     </row>
-    <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A78" s="21"/>
       <c r="B78" s="8"/>
       <c r="C78" s="6"/>
     </row>
-    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A79" s="21"/>
       <c r="B79" s="8"/>
       <c r="C79" s="6"/>
     </row>
-    <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A80" s="21"/>
       <c r="B80" s="8"/>
       <c r="C80" s="6"/>
     </row>
-    <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A81" s="21"/>
       <c r="B81" s="8"/>
       <c r="C81" s="6"/>
     </row>
-    <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A82" s="21"/>
       <c r="B82" s="8"/>
       <c r="C82" s="6"/>
     </row>
-    <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A83" s="21"/>
       <c r="B83" s="8"/>
       <c r="C83" s="6"/>
     </row>
-    <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A84" s="21"/>
       <c r="B84" s="8"/>
       <c r="C84" s="6"/>
     </row>
-    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A85" s="21"/>
       <c r="B85" s="8"/>
       <c r="C85" s="6"/>
     </row>
-    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A86" s="21"/>
       <c r="B86" s="8"/>
       <c r="C86" s="6"/>
     </row>
-    <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A87" s="21"/>
       <c r="B87" s="8"/>
       <c r="C87" s="6"/>
     </row>
-    <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A88" s="21"/>
       <c r="B88" s="8"/>
       <c r="C88" s="6"/>
     </row>
-    <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A89" s="21"/>
       <c r="B89" s="8"/>
       <c r="C89" s="6"/>
     </row>
-    <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A90" s="21"/>
       <c r="B90" s="8"/>
       <c r="C90" s="6"/>
     </row>
-    <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A91" s="21"/>
       <c r="B91" s="8"/>
       <c r="C91" s="6"/>
     </row>
-    <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A92" s="21"/>
       <c r="B92" s="8"/>
       <c r="C92" s="6"/>
     </row>
-    <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A93" s="21"/>
       <c r="B93" s="8"/>
       <c r="C93" s="6"/>
     </row>
-    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A94" s="21"/>
       <c r="B94" s="8"/>
       <c r="C94" s="6"/>
     </row>
-    <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A95" s="21"/>
       <c r="B95" s="8"/>
       <c r="C95" s="6"/>
     </row>
-    <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A96" s="21"/>
       <c r="B96" s="8"/>
       <c r="C96" s="6"/>
     </row>
-    <row r="97" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A97" s="21"/>
       <c r="B97" s="8"/>
       <c r="C97" s="6"/>
     </row>
-    <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A98" s="21"/>
       <c r="B98" s="8"/>
       <c r="C98" s="6"/>
     </row>
-    <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A99" s="21"/>
       <c r="B99" s="8"/>
       <c r="C99" s="6"/>
     </row>
-    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A100" s="21"/>
       <c r="B100" s="8"/>
       <c r="C100" s="6"/>
     </row>
-    <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A101" s="21"/>
       <c r="B101" s="8"/>
       <c r="C101" s="6"/>
     </row>
-    <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A102" s="21"/>
       <c r="B102" s="8"/>
       <c r="C102" s="6"/>
     </row>
-    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A103" s="21"/>
       <c r="B103" s="8"/>
       <c r="C103" s="6"/>
     </row>
-    <row r="104" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A104" s="21"/>
       <c r="B104" s="8"/>
       <c r="C104" s="6"/>
     </row>
-    <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A105" s="21"/>
       <c r="B105" s="8"/>
       <c r="C105" s="6"/>
     </row>
-    <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A106" s="21"/>
       <c r="B106" s="8"/>
       <c r="C106" s="6"/>
     </row>
-    <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A107" s="21"/>
       <c r="B107" s="8"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A108" s="21"/>
       <c r="B108" s="8"/>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A109" s="21"/>
       <c r="B109" s="8"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A110" s="21"/>
       <c r="B110" s="8"/>
       <c r="C110" s="6"/>
     </row>
-    <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A111" s="21"/>
       <c r="B111" s="8"/>
       <c r="C111" s="6"/>
     </row>
-    <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A112" s="21"/>
       <c r="B112" s="8"/>
       <c r="C112" s="6"/>
     </row>
-    <row r="113" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A113" s="21"/>
       <c r="B113" s="8"/>
       <c r="C113" s="6"/>
     </row>
-    <row r="114" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A114" s="21"/>
       <c r="B114" s="8"/>
       <c r="C114" s="6"/>
     </row>
-    <row r="115" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A115" s="21"/>
       <c r="B115" s="8"/>
       <c r="C115" s="6"/>
     </row>
-    <row r="116" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A116" s="21"/>
       <c r="B116" s="8"/>
       <c r="C116" s="6"/>
     </row>
-    <row r="117" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A117" s="21"/>
       <c r="B117" s="8"/>
       <c r="C117" s="6"/>
     </row>
-    <row r="118" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A118" s="21"/>
       <c r="B118" s="8"/>
       <c r="C118" s="6"/>
     </row>
-    <row r="119" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A119" s="21"/>
       <c r="B119" s="8"/>
       <c r="C119" s="6"/>
     </row>
-    <row r="120" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A120" s="21"/>
       <c r="B120" s="8"/>
       <c r="C120" s="6"/>
     </row>
-    <row r="121" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="21"/>
+    <row r="121" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A121" s="25"/>
       <c r="B121" s="8"/>
       <c r="C121" s="6"/>
     </row>
-    <row r="122" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="21"/>
+    <row r="122" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A122" s="25"/>
       <c r="B122" s="8"/>
       <c r="C122" s="6"/>
     </row>
-    <row r="123" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="21"/>
+    <row r="123" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A123" s="25"/>
       <c r="B123" s="8"/>
       <c r="C123" s="6"/>
     </row>
-    <row r="124" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="21"/>
+    <row r="124" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A124" s="25"/>
       <c r="B124" s="8"/>
       <c r="C124" s="6"/>
     </row>
-    <row r="125" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="21"/>
+    <row r="125" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A125" s="25"/>
       <c r="B125" s="8"/>
       <c r="C125" s="6"/>
     </row>
-    <row r="126" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="21"/>
+    <row r="126" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A126" s="25"/>
       <c r="B126" s="8"/>
       <c r="C126" s="6"/>
     </row>
-    <row r="127" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A127" s="25"/>
       <c r="B127" s="8"/>
       <c r="C127" s="6"/>
     </row>
-    <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A128" s="25"/>
       <c r="B128" s="8"/>
       <c r="C128" s="6"/>
     </row>
-    <row r="129" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A129" s="25"/>
       <c r="B129" s="8"/>
       <c r="C129" s="6"/>
     </row>
-    <row r="130" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A130" s="25"/>
       <c r="B130" s="8"/>
       <c r="C130" s="6"/>
     </row>
-    <row r="131" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A131" s="25"/>
       <c r="B131" s="8"/>
       <c r="C131" s="6"/>
     </row>
-    <row r="132" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A132" s="25"/>
       <c r="B132" s="8"/>
       <c r="C132" s="6"/>
     </row>
-    <row r="133" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A133" s="25"/>
       <c r="B133" s="8"/>
       <c r="C133" s="6"/>
     </row>
-    <row r="134" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A134" s="25"/>
       <c r="B134" s="8"/>
       <c r="C134" s="6"/>
     </row>
-    <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A135" s="25"/>
       <c r="B135" s="8"/>
       <c r="C135" s="6"/>
     </row>
-    <row r="136" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="25"/>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A136" s="20"/>
       <c r="B136" s="8"/>
       <c r="C136" s="6"/>
     </row>
-    <row r="137" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="25"/>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A137" s="20"/>
       <c r="B137" s="8"/>
       <c r="C137" s="6"/>
     </row>
-    <row r="138" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="25"/>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A138" s="20"/>
       <c r="B138" s="8"/>
       <c r="C138" s="6"/>
     </row>
-    <row r="139" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="25"/>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A139" s="20"/>
       <c r="B139" s="8"/>
       <c r="C139" s="6"/>
     </row>
-    <row r="140" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="25"/>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A140" s="20"/>
       <c r="B140" s="8"/>
       <c r="C140" s="6"/>
     </row>
-    <row r="141" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="25"/>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A141" s="20"/>
       <c r="B141" s="8"/>
       <c r="C141" s="6"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" s="20"/>
       <c r="B142" s="8"/>
       <c r="C142" s="6"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" s="20"/>
       <c r="B143" s="8"/>
       <c r="C143" s="6"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" s="20"/>
       <c r="B144" s="8"/>
       <c r="C144" s="6"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" s="20"/>
       <c r="B145" s="8"/>
       <c r="C145" s="6"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" s="20"/>
       <c r="B146" s="8"/>
       <c r="C146" s="6"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" s="20"/>
       <c r="B147" s="8"/>
       <c r="C147" s="6"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" s="20"/>
       <c r="B148" s="8"/>
       <c r="C148" s="6"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" s="20"/>
       <c r="B149" s="8"/>
       <c r="C149" s="6"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" s="20"/>
       <c r="B150" s="8"/>
       <c r="C150" s="6"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" s="20"/>
       <c r="B151" s="8"/>
       <c r="C151" s="6"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" s="20"/>
       <c r="B152" s="8"/>
       <c r="C152" s="6"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" s="20"/>
       <c r="B153" s="8"/>
       <c r="C153" s="6"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" s="20"/>
       <c r="B154" s="8"/>
       <c r="C154" s="6"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" s="20"/>
       <c r="B155" s="8"/>
       <c r="C155" s="6"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" s="20"/>
       <c r="B156" s="8"/>
       <c r="C156" s="6"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" s="20"/>
       <c r="B157" s="8"/>
       <c r="C157" s="6"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" s="20"/>
       <c r="B158" s="8"/>
       <c r="C158" s="6"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" s="20"/>
       <c r="B159" s="8"/>
       <c r="C159" s="6"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" s="20"/>
       <c r="B160" s="8"/>
       <c r="C160" s="6"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" s="20"/>
       <c r="B161" s="8"/>
       <c r="C161" s="6"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" s="20"/>
       <c r="B162" s="8"/>
       <c r="C162" s="6"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" s="20"/>
       <c r="B163" s="8"/>
       <c r="C163" s="6"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" s="20"/>
       <c r="B164" s="8"/>
       <c r="C164" s="6"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" s="20"/>
       <c r="B165" s="8"/>
       <c r="C165" s="6"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="20"/>
-      <c r="B166" s="8"/>
-      <c r="C166" s="6"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="20"/>
-      <c r="B167" s="8"/>
-      <c r="C167" s="6"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="20"/>
-      <c r="B168" s="8"/>
-      <c r="C168" s="6"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="20"/>
-      <c r="B169" s="8"/>
-      <c r="C169" s="6"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="20"/>
-      <c r="B170" s="8"/>
-      <c r="C170" s="6"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="20"/>
-      <c r="B171" s="8"/>
-      <c r="C171" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4013,7 +4066,7 @@
       <selection activeCell="A41" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1. Selled_sentence/chungduong0988_11.5.2024/Selled sentence.xlsx
+++ b/1. Selled_sentence/chungduong0988_11.5.2024/Selled sentence.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\autnp\Documents\1. Doc\python learning\Temp\project_chung0988\1. Selled_sentence\chungduong0988_11.5.2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. Sticker\3. Git project\project_chung0988\1. Selled_sentence\chungduong0988_11.5.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TK Bao truoc thang 4" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="510">
   <si>
     <t>ST20231219_162915</t>
   </si>
@@ -1043,6 +1043,519 @@
   </si>
   <si>
     <t>Buckle UP i Want to Try Something</t>
+  </si>
+  <si>
+    <t>Husband and Dog Missing Reward for Dog</t>
+  </si>
+  <si>
+    <t>I Came, I Saw, I Had Anxiety, So I Left</t>
+  </si>
+  <si>
+    <t>I Identify As A American</t>
+  </si>
+  <si>
+    <t>I'm Only Driving This Way to Piss You Off</t>
+  </si>
+  <si>
+    <t>I'm Retired, Go Around Me</t>
+  </si>
+  <si>
+    <t>I'm Only Driving Fast Because I Have to Poop</t>
+  </si>
+  <si>
+    <t>I'm Speeding Because I Have to Poop</t>
+  </si>
+  <si>
+    <t>If You Don't Like The Way I Drive Stay Off The Sidewalk</t>
+  </si>
+  <si>
+    <t>Think This is Slow Wait Until I Go Uphill</t>
+  </si>
+  <si>
+    <t>My Driving Scares Me Too</t>
+  </si>
+  <si>
+    <t>We The People are Pissed Off</t>
+  </si>
+  <si>
+    <t>Outta My Way I Have to Pee!</t>
+  </si>
+  <si>
+    <t>I Piss Stupid People Off</t>
+  </si>
+  <si>
+    <t>I Smell Commies!</t>
+  </si>
+  <si>
+    <t>I Paused My Crime Show for This</t>
+  </si>
+  <si>
+    <t>Probably Listening to a True Crime Podcast</t>
+  </si>
+  <si>
+    <t>I'm Watching Serial Killer Crime Show Documentaries</t>
+  </si>
+  <si>
+    <t>I Paused My Game to be here</t>
+  </si>
+  <si>
+    <t>Id Rather Be Watching Crime Shows</t>
+  </si>
+  <si>
+    <t>I need a nap</t>
+  </si>
+  <si>
+    <t>I Don't Need A Valentine I need a nap</t>
+  </si>
+  <si>
+    <t>All I Need is Coffee and My Dog</t>
+  </si>
+  <si>
+    <t>There It Goes My Last Flying Fuck</t>
+  </si>
+  <si>
+    <t>It's NOT Going to Suck Itself</t>
+  </si>
+  <si>
+    <t>If You're Going to Ride My Ass Don't Forget to Kiss It</t>
+  </si>
+  <si>
+    <t>Lets Keep The Dumbfuckery to a Minimum Today</t>
+  </si>
+  <si>
+    <t>Smash The Patriarchy</t>
+  </si>
+  <si>
+    <t>Carry Yourself with The Confidence of A Mediocre White Man</t>
+  </si>
+  <si>
+    <t>I don't rise and shine, I caffeinate and hope for the best</t>
+  </si>
+  <si>
+    <t>It's Fine. I'm Fine. Everything is Fine</t>
+  </si>
+  <si>
+    <t>The Strongest Steel is Forged in The Fire of a Dumpster</t>
+  </si>
+  <si>
+    <t>I'm Silently Judging Your Teeth</t>
+  </si>
+  <si>
+    <t>My Sense of Humor Might Hurt Your Feelings</t>
+  </si>
+  <si>
+    <t>Well, If It Isn't The Consequences of My Own Actions</t>
+  </si>
+  <si>
+    <t>Don't honk at me I'm Crying Already</t>
+  </si>
+  <si>
+    <t>HONK if You Love Dying and Being Dead</t>
+  </si>
+  <si>
+    <t>Don't honk at me I'm Trying My Best</t>
+  </si>
+  <si>
+    <t>Keep honking I'm Deaf!</t>
+  </si>
+  <si>
+    <t>Don't honk at me I'll Cum</t>
+  </si>
+  <si>
+    <t>keep Honking I'm Reloading!</t>
+  </si>
+  <si>
+    <t>HONK if You Commit Arson</t>
+  </si>
+  <si>
+    <t>honk if You're Gay</t>
+  </si>
+  <si>
+    <t>You just got Passed by a Bitch</t>
+  </si>
+  <si>
+    <t>You Just Got Passed by A Girl</t>
+  </si>
+  <si>
+    <t>You Just Got Passed by A Grandpa</t>
+  </si>
+  <si>
+    <t>I Will Not Brake For Kids</t>
+  </si>
+  <si>
+    <t>I Will Not Brake for Children</t>
+  </si>
+  <si>
+    <t>I Brake for Animals</t>
+  </si>
+  <si>
+    <t>I Brake for Critters</t>
+  </si>
+  <si>
+    <t>I Brake for Possums</t>
+  </si>
+  <si>
+    <t>I Brake for Raccoons</t>
+  </si>
+  <si>
+    <t>I Brake for Squirrels</t>
+  </si>
+  <si>
+    <t>I Brake for Turtles</t>
+  </si>
+  <si>
+    <t>Please Don't Park Too Close I'm Fat</t>
+  </si>
+  <si>
+    <t>Don't Park Too Close I'm Thick</t>
+  </si>
+  <si>
+    <t>I Brake for Cats</t>
+  </si>
+  <si>
+    <t>I Brake for dogs</t>
+  </si>
+  <si>
+    <t>I Brake for Butterflies</t>
+  </si>
+  <si>
+    <t>I Brake for Wildlife</t>
+  </si>
+  <si>
+    <t>I Support Single Moms</t>
+  </si>
+  <si>
+    <t>I Brake for Bunnies</t>
+  </si>
+  <si>
+    <t>I Brake for Ducks</t>
+  </si>
+  <si>
+    <t>Easily Distracted by Cows</t>
+  </si>
+  <si>
+    <t>That Sounds Like A You Problem</t>
+  </si>
+  <si>
+    <t>Embrace the Chaos</t>
+  </si>
+  <si>
+    <t>You've Yee'd Your Last Haw</t>
+  </si>
+  <si>
+    <t>Hang in There It Get Worse</t>
+  </si>
+  <si>
+    <t>Please Let Me Merge Before I Start Crying</t>
+  </si>
+  <si>
+    <t>The Hell I Won't</t>
+  </si>
+  <si>
+    <t>Thats My Purse, I Don't Know You</t>
+  </si>
+  <si>
+    <t>Heaven Won't Have ME Hell's Afraid I'll TAKE Over</t>
+  </si>
+  <si>
+    <t>I'm Going to Hell On A Full Scholarship</t>
+  </si>
+  <si>
+    <t>My Other Car is A Sled Pulled by 58 Possums</t>
+  </si>
+  <si>
+    <t>Surviving Purely Out of Spite</t>
+  </si>
+  <si>
+    <t>God Is Testing Me And I Have Not Studied</t>
+  </si>
+  <si>
+    <t>Please Be Patient Stupid Driver</t>
+  </si>
+  <si>
+    <t>Please Be Patient New Driver</t>
+  </si>
+  <si>
+    <t>Please Be Patient Old Driver</t>
+  </si>
+  <si>
+    <t>Please Be Patient Senior Driver</t>
+  </si>
+  <si>
+    <t>Please Be Patient Slow Driver</t>
+  </si>
+  <si>
+    <t>This Driver is Doing Their Best</t>
+  </si>
+  <si>
+    <t>Keep Distance new driver</t>
+  </si>
+  <si>
+    <t>New Driver My Driving Scares Me Too</t>
+  </si>
+  <si>
+    <t>Keep Your Religion Out of Government</t>
+  </si>
+  <si>
+    <t>I Love My Country but Fear my Government</t>
+  </si>
+  <si>
+    <t>Love My Country Ashamed of My Government</t>
+  </si>
+  <si>
+    <t>I Love My Country. It's The Government I'm Afraid of</t>
+  </si>
+  <si>
+    <t>We The People Not The Government</t>
+  </si>
+  <si>
+    <t>Guns Don't Kill People, Governments Do</t>
+  </si>
+  <si>
+    <t>Guns Don't Kill People Drivers with Cellphones Do</t>
+  </si>
+  <si>
+    <t>Guns Don't Kill People People Kill People</t>
+  </si>
+  <si>
+    <t>Guns Don't Kill People Biden Does</t>
+  </si>
+  <si>
+    <t>Guns Dont Kill People Abortion Clinics Do</t>
+  </si>
+  <si>
+    <t>Fear The Government That Fears Your Guns</t>
+  </si>
+  <si>
+    <t>I Lubricate My Guns with The Tears of Liberals tear</t>
+  </si>
+  <si>
+    <t>NO More Silence END Gun Violence</t>
+  </si>
+  <si>
+    <t>Less Government Freedom Free</t>
+  </si>
+  <si>
+    <t>Trust The Government They Never Lie</t>
+  </si>
+  <si>
+    <t>If You Trust The Government You Don't Know History</t>
+  </si>
+  <si>
+    <t>Life is Tough But It's Tougher If You're Stupid</t>
+  </si>
+  <si>
+    <t>I See Stupid People</t>
+  </si>
+  <si>
+    <t>If I Die At Work Please Place My PPE On Me</t>
+  </si>
+  <si>
+    <t>Burnt Out but Optimistic</t>
+  </si>
+  <si>
+    <t>Keep Calm All Bleeding Stops Eventually</t>
+  </si>
+  <si>
+    <t>Be Gay do Crime</t>
+  </si>
+  <si>
+    <t>Silly Goose On Board</t>
+  </si>
+  <si>
+    <t>A Silly Goose Drives This Car</t>
+  </si>
+  <si>
+    <t>Remember Kids Electricity Will Kill You</t>
+  </si>
+  <si>
+    <t>Become Ungovernable</t>
+  </si>
+  <si>
+    <t>If It Flies It Dies</t>
+  </si>
+  <si>
+    <t>Let's Get This Bread</t>
+  </si>
+  <si>
+    <t>I Think I Will Cause Problems On Purpose</t>
+  </si>
+  <si>
+    <t>Throw Bread on Me</t>
+  </si>
+  <si>
+    <t>I Brake for Geese</t>
+  </si>
+  <si>
+    <t>I'm Not for Everyone</t>
+  </si>
+  <si>
+    <t>My Alone time is for Everyone's Safety</t>
+  </si>
+  <si>
+    <t>I Identify As A Problem</t>
+  </si>
+  <si>
+    <t>I Identify AS A Prius</t>
+  </si>
+  <si>
+    <t>Everyone is Welcome Here</t>
+  </si>
+  <si>
+    <t>if I'm Too Much Then Go Find Less</t>
+  </si>
+  <si>
+    <t>Everything is Connected</t>
+  </si>
+  <si>
+    <t>Nobody Knows I'm Gay</t>
+  </si>
+  <si>
+    <t>Fear is The Mind Killer</t>
+  </si>
+  <si>
+    <t>Just a Good mom with a Hood Playlist</t>
+  </si>
+  <si>
+    <t>The Best Mom Ever</t>
+  </si>
+  <si>
+    <t>World's Best Mom</t>
+  </si>
+  <si>
+    <t>If It's Too Loud You're Too Old</t>
+  </si>
+  <si>
+    <t>Your Government is Lying to You</t>
+  </si>
+  <si>
+    <t>Life Begins at Conception</t>
+  </si>
+  <si>
+    <t>Please Do Not Park Within 8 Feet</t>
+  </si>
+  <si>
+    <t>Hard Times Do Not Last Forever</t>
+  </si>
+  <si>
+    <t>Tough Times Don't Last. Tough People Do</t>
+  </si>
+  <si>
+    <t>I Slow Down for Tailgaters</t>
+  </si>
+  <si>
+    <t>Sorry for Driving So Close in Front of You</t>
+  </si>
+  <si>
+    <t>Keep Tailgating I'm Reloading</t>
+  </si>
+  <si>
+    <t>Please Do Not Tailgate</t>
+  </si>
+  <si>
+    <t>Tailgating is Small dick Behavior</t>
+  </si>
+  <si>
+    <t>Hit Me, I Need The Money</t>
+  </si>
+  <si>
+    <t>Feel Free to Pass Me</t>
+  </si>
+  <si>
+    <t>I'm Not to Blame for The Speed Limit Feel Free to Pass Me</t>
+  </si>
+  <si>
+    <t>The Speed Limit Do Not Tailgate</t>
+  </si>
+  <si>
+    <t>Yes This is My Truck. no I Won't Help You Move</t>
+  </si>
+  <si>
+    <t>Yes I See You! No I Won't Speed Up!</t>
+  </si>
+  <si>
+    <t>YES It's Fast. NO You Can't Drive IT</t>
+  </si>
+  <si>
+    <t>This Vehicle Makes Wide Right Turns</t>
+  </si>
+  <si>
+    <t>This Vehicle Makes Frequent Stops</t>
+  </si>
+  <si>
+    <t>This Vehicle Does Not Turn Right on Red</t>
+  </si>
+  <si>
+    <t>don't forget to smile</t>
+  </si>
+  <si>
+    <t>Your Speed Doesn't Matter Forward Is Forward</t>
+  </si>
+  <si>
+    <t>Yes Officer I Did See The Speed Limit. I just Didn't See You</t>
+  </si>
+  <si>
+    <t>Just Because You're Offended, Doesn't Mean You're Right</t>
+  </si>
+  <si>
+    <t>living my best life</t>
+  </si>
+  <si>
+    <t>in a World Where You Can Be Anything Be Kind</t>
+  </si>
+  <si>
+    <t>Do What Makes You Happy</t>
+  </si>
+  <si>
+    <t>I Exist Without My Consent</t>
+  </si>
+  <si>
+    <t>Existence is Pain</t>
+  </si>
+  <si>
+    <t>Pain Is Temporary, Quitting Lasts Forever</t>
+  </si>
+  <si>
+    <t>I am a child of God</t>
+  </si>
+  <si>
+    <t>Speak Your Mind Even If Your Voice Shakes</t>
+  </si>
+  <si>
+    <t>Hydrate or Diedrate</t>
+  </si>
+  <si>
+    <t>Use Your Blinkers</t>
+  </si>
+  <si>
+    <t>I Don't Have Road Rage You're Just an Idiot</t>
+  </si>
+  <si>
+    <t>Use Turn Signals Not Telepathy</t>
+  </si>
+  <si>
+    <t>Using Your Turn Signal</t>
+  </si>
+  <si>
+    <t>Don't Be A Stinker Use Your Blinker</t>
+  </si>
+  <si>
+    <t>Use Your Blinker Bestie</t>
+  </si>
+  <si>
+    <t>Please Turn Off The Lights When You Leave</t>
+  </si>
+  <si>
+    <t>Turn Off The Lights when not in use</t>
+  </si>
+  <si>
+    <t>I Brake For Frogs</t>
+  </si>
+  <si>
+    <t>You just got passed by a bad driver!</t>
+  </si>
+  <si>
+    <t>Why Hello Sweet Cheeks Have A Seat</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1324,6 +1837,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1610,14 +2124,14 @@
       <selection sqref="A1:C173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" customWidth="1"/>
-    <col min="2" max="2" width="52.3984375" customWidth="1"/>
-    <col min="3" max="3" width="23.265625" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="52.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>172</v>
       </c>
@@ -1628,7 +2142,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -1639,7 +2153,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -1648,7 +2162,7 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
@@ -1657,7 +2171,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
@@ -1666,7 +2180,7 @@
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
@@ -1675,7 +2189,7 @@
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
@@ -1686,7 +2200,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -1695,7 +2209,7 @@
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
@@ -1704,7 +2218,7 @@
       </c>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
@@ -1713,7 +2227,7 @@
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
@@ -1722,7 +2236,7 @@
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -1731,7 +2245,7 @@
       </c>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -1740,7 +2254,7 @@
       </c>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
@@ -1749,7 +2263,7 @@
       </c>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
@@ -1760,7 +2274,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
@@ -1771,7 +2285,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>15</v>
       </c>
@@ -1780,7 +2294,7 @@
       </c>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -1789,7 +2303,7 @@
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>17</v>
       </c>
@@ -1798,7 +2312,7 @@
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>18</v>
       </c>
@@ -1807,7 +2321,7 @@
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>19</v>
       </c>
@@ -1816,7 +2330,7 @@
       </c>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>20</v>
       </c>
@@ -1825,7 +2339,7 @@
       </c>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>21</v>
       </c>
@@ -1834,7 +2348,7 @@
       </c>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>22</v>
       </c>
@@ -1843,7 +2357,7 @@
       </c>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>23</v>
       </c>
@@ -1852,7 +2366,7 @@
       </c>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>24</v>
       </c>
@@ -1861,7 +2375,7 @@
       </c>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>25</v>
       </c>
@@ -1870,7 +2384,7 @@
       </c>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>26</v>
       </c>
@@ -1879,7 +2393,7 @@
       </c>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>27</v>
       </c>
@@ -1888,7 +2402,7 @@
       </c>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>28</v>
       </c>
@@ -1897,7 +2411,7 @@
       </c>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>29</v>
       </c>
@@ -1906,7 +2420,7 @@
       </c>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>30</v>
       </c>
@@ -1915,7 +2429,7 @@
       </c>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>31</v>
       </c>
@@ -1924,7 +2438,7 @@
       </c>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>32</v>
       </c>
@@ -1933,21 +2447,21 @@
       </c>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>35</v>
       </c>
@@ -1956,7 +2470,7 @@
       </c>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>36</v>
       </c>
@@ -1965,7 +2479,7 @@
       </c>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>37</v>
       </c>
@@ -1976,7 +2490,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>38</v>
       </c>
@@ -1985,7 +2499,7 @@
       </c>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>39</v>
       </c>
@@ -1994,7 +2508,7 @@
       </c>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>40</v>
       </c>
@@ -2003,7 +2517,7 @@
       </c>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>41</v>
       </c>
@@ -2012,7 +2526,7 @@
       </c>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>42</v>
       </c>
@@ -2021,903 +2535,903 @@
       </c>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="6"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="6"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="6"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="6"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="6"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="6"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="6"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="6"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="6"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="6"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="6"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="6"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="6"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="6"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="6"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="6"/>
     </row>
-    <row r="76" spans="1:3" ht="21" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="6"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="6"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="6"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="6"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>78</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="6"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="6"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>80</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="6"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="6"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>82</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="6"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>83</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="6"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="6"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>85</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="6"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="6"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>87</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="6"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>88</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="6"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>89</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="6"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>90</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="6"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="6"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>92</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="6"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>93</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="6"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="6"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>95</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="6"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>96</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="6"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>97</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="6"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>98</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="6"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="6"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
         <v>100</v>
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="6"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="s">
         <v>101</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="6"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
         <v>102</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="6"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="6"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
         <v>104</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="6"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
         <v>105</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="s">
         <v>106</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="s">
         <v>107</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="s">
         <v>108</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="6"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
         <v>109</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="6"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
         <v>110</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="6"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
         <v>111</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="6"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
         <v>112</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="6"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
         <v>113</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="6"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="17" t="s">
         <v>114</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="6"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="17" t="s">
         <v>115</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="6"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="17" t="s">
         <v>116</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="6"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="s">
         <v>117</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="6"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="17" t="s">
         <v>118</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="6"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="17" t="s">
         <v>119</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="6"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="17" t="s">
         <v>120</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="6"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="s">
         <v>121</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="6"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="17" t="s">
         <v>122</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="6"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="17" t="s">
         <v>123</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="6"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="s">
         <v>124</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="6"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
         <v>125</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="6"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
         <v>126</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="6"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
         <v>127</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="6"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
         <v>128</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="6"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
         <v>129</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="6"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
         <v>130</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="6"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
         <v>131</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="6"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="17" t="s">
         <v>132</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="6"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="17" t="s">
         <v>133</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="6"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="17" t="s">
         <v>134</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="6"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A137" s="17" t="s">
         <v>135</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="6"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A138" s="17" t="s">
         <v>136</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="6"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="s">
         <v>137</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="6"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A140" s="19" t="s">
         <v>138</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="6"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="17" t="s">
         <v>139</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="6"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="17" t="s">
         <v>140</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="6"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="17" t="s">
         <v>141</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="6"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
         <v>142</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="6"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="6"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="6"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
         <v>145</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="6"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
         <v>146</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="6"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
         <v>147</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="6"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
         <v>148</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="6"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
         <v>149</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="6"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="17" t="s">
         <v>150</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="6"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="s">
         <v>151</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="6"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
         <v>152</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="6"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
         <v>153</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="6"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="s">
         <v>154</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="6"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="17" t="s">
         <v>155</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="6"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="17" t="s">
         <v>156</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="6"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="17" t="s">
         <v>157</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="6"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="17" t="s">
         <v>158</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="6"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="6"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="17" t="s">
         <v>160</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="6"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="17" t="s">
         <v>161</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="6"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="17" t="s">
         <v>162</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="6"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="17" t="s">
         <v>163</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="6"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="17" t="s">
         <v>164</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="6"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="s">
         <v>165</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="6"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="17" t="s">
         <v>166</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="6"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="17" t="s">
         <v>167</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="6"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="17" t="s">
         <v>168</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="6"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="17" t="s">
         <v>169</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="6"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="17" t="s">
         <v>170</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="6"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="17" t="s">
         <v>171</v>
       </c>
@@ -2934,18 +3448,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B70" sqref="B2:B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" customWidth="1"/>
-    <col min="2" max="2" width="39.265625" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>172</v>
       </c>
@@ -2956,7 +3470,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>216</v>
       </c>
@@ -2965,7 +3479,7 @@
       </c>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>217</v>
       </c>
@@ -2974,7 +3488,7 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>218</v>
       </c>
@@ -2983,7 +3497,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>219</v>
       </c>
@@ -2992,7 +3506,7 @@
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>220</v>
       </c>
@@ -3001,7 +3515,7 @@
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>221</v>
       </c>
@@ -3010,7 +3524,7 @@
       </c>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>222</v>
       </c>
@@ -3019,7 +3533,7 @@
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>223</v>
       </c>
@@ -3028,7 +3542,7 @@
       </c>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>224</v>
       </c>
@@ -3037,7 +3551,7 @@
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>225</v>
       </c>
@@ -3046,7 +3560,7 @@
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>226</v>
       </c>
@@ -3055,7 +3569,7 @@
       </c>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>227</v>
       </c>
@@ -3064,7 +3578,7 @@
       </c>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>228</v>
       </c>
@@ -3073,7 +3587,7 @@
       </c>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>229</v>
       </c>
@@ -3082,7 +3596,7 @@
       </c>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>230</v>
       </c>
@@ -3091,7 +3605,7 @@
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>231</v>
       </c>
@@ -3100,7 +3614,7 @@
       </c>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>232</v>
       </c>
@@ -3109,7 +3623,7 @@
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>233</v>
       </c>
@@ -3118,7 +3632,7 @@
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>234</v>
       </c>
@@ -3127,7 +3641,7 @@
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>235</v>
       </c>
@@ -3136,7 +3650,7 @@
       </c>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>236</v>
       </c>
@@ -3145,7 +3659,7 @@
       </c>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>237</v>
       </c>
@@ -3154,7 +3668,7 @@
       </c>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>238</v>
       </c>
@@ -3163,7 +3677,7 @@
       </c>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>239</v>
       </c>
@@ -3172,7 +3686,7 @@
       </c>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
         <v>240</v>
       </c>
@@ -3181,7 +3695,7 @@
       </c>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
         <v>241</v>
       </c>
@@ -3190,7 +3704,7 @@
       </c>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>242</v>
       </c>
@@ -3199,7 +3713,7 @@
       </c>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
         <v>243</v>
       </c>
@@ -3208,7 +3722,7 @@
       </c>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
         <v>244</v>
       </c>
@@ -3217,7 +3731,7 @@
       </c>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
         <v>245</v>
       </c>
@@ -3226,7 +3740,7 @@
       </c>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
         <v>246</v>
       </c>
@@ -3235,7 +3749,7 @@
       </c>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>247</v>
       </c>
@@ -3244,7 +3758,7 @@
       </c>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
         <v>248</v>
       </c>
@@ -3253,7 +3767,7 @@
       </c>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
         <v>249</v>
       </c>
@@ -3262,7 +3776,7 @@
       </c>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
         <v>250</v>
       </c>
@@ -3271,7 +3785,7 @@
       </c>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
         <v>251</v>
       </c>
@@ -3280,7 +3794,7 @@
       </c>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
         <v>252</v>
       </c>
@@ -3289,7 +3803,7 @@
       </c>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
         <v>253</v>
       </c>
@@ -3298,7 +3812,7 @@
       </c>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
         <v>254</v>
       </c>
@@ -3307,7 +3821,7 @@
       </c>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
         <v>255</v>
       </c>
@@ -3316,7 +3830,7 @@
       </c>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="22" t="s">
         <v>256</v>
       </c>
@@ -3325,7 +3839,7 @@
       </c>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="22" t="s">
         <v>257</v>
       </c>
@@ -3334,7 +3848,7 @@
       </c>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="22" t="s">
         <v>258</v>
       </c>
@@ -3343,7 +3857,7 @@
       </c>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
         <v>259</v>
       </c>
@@ -3352,7 +3866,7 @@
       </c>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="22" t="s">
         <v>260</v>
       </c>
@@ -3361,7 +3875,7 @@
       </c>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="22" t="s">
         <v>261</v>
       </c>
@@ -3370,7 +3884,7 @@
       </c>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="22" t="s">
         <v>262</v>
       </c>
@@ -3379,7 +3893,7 @@
       </c>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="22" t="s">
         <v>263</v>
       </c>
@@ -3388,7 +3902,7 @@
       </c>
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
         <v>264</v>
       </c>
@@ -3397,7 +3911,7 @@
       </c>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="22" t="s">
         <v>265</v>
       </c>
@@ -3406,7 +3920,7 @@
       </c>
       <c r="C51" s="6"/>
     </row>
-    <row r="52" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="22" t="s">
         <v>266</v>
       </c>
@@ -3415,7 +3929,7 @@
       </c>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="22" t="s">
         <v>267</v>
       </c>
@@ -3424,7 +3938,7 @@
       </c>
       <c r="C53" s="6"/>
     </row>
-    <row r="54" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
         <v>268</v>
       </c>
@@ -3433,7 +3947,7 @@
       </c>
       <c r="C54" s="6"/>
     </row>
-    <row r="55" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
         <v>269</v>
       </c>
@@ -3442,7 +3956,7 @@
       </c>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="22" t="s">
         <v>270</v>
       </c>
@@ -3451,7 +3965,7 @@
       </c>
       <c r="C56" s="6"/>
     </row>
-    <row r="57" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="22" t="s">
         <v>271</v>
       </c>
@@ -3460,7 +3974,7 @@
       </c>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
         <v>272</v>
       </c>
@@ -3469,7 +3983,7 @@
       </c>
       <c r="C58" s="6"/>
     </row>
-    <row r="59" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="22" t="s">
         <v>273</v>
       </c>
@@ -3478,7 +3992,7 @@
       </c>
       <c r="C59" s="6"/>
     </row>
-    <row r="60" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="21" t="s">
         <v>323</v>
       </c>
@@ -3487,7 +4001,7 @@
       </c>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="21" t="s">
         <v>325</v>
       </c>
@@ -3496,7 +4010,7 @@
       </c>
       <c r="C61" s="6"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
         <v>217</v>
       </c>
@@ -3505,7 +4019,7 @@
       </c>
       <c r="C62" s="6"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
         <v>269</v>
       </c>
@@ -3514,7 +4028,7 @@
       </c>
       <c r="C63" s="6"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
         <v>232</v>
       </c>
@@ -3523,7 +4037,7 @@
       </c>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
         <v>326</v>
       </c>
@@ -3532,7 +4046,7 @@
       </c>
       <c r="C65" s="6"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
         <v>327</v>
       </c>
@@ -3541,7 +4055,7 @@
       </c>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
         <v>328</v>
       </c>
@@ -3550,7 +4064,7 @@
       </c>
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
         <v>329</v>
       </c>
@@ -3559,7 +4073,7 @@
       </c>
       <c r="C68" s="6"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="26" t="s">
         <v>330</v>
       </c>
@@ -3568,7 +4082,7 @@
       </c>
       <c r="C69" s="6"/>
     </row>
-    <row r="70" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="26" t="s">
         <v>331</v>
       </c>
@@ -3577,477 +4091,477 @@
       </c>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="21"/>
       <c r="B71" s="8"/>
       <c r="C71" s="6"/>
     </row>
-    <row r="72" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="21"/>
       <c r="B72" s="8"/>
       <c r="C72" s="6"/>
     </row>
-    <row r="73" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="21"/>
       <c r="B73" s="8"/>
       <c r="C73" s="6"/>
     </row>
-    <row r="74" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21"/>
       <c r="B74" s="8"/>
       <c r="C74" s="6"/>
     </row>
-    <row r="75" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="21"/>
       <c r="B75" s="8"/>
       <c r="C75" s="6"/>
     </row>
-    <row r="76" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="21"/>
       <c r="B76" s="8"/>
       <c r="C76" s="6"/>
     </row>
-    <row r="77" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="21"/>
       <c r="B77" s="8"/>
       <c r="C77" s="6"/>
     </row>
-    <row r="78" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="21"/>
       <c r="B78" s="8"/>
       <c r="C78" s="6"/>
     </row>
-    <row r="79" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="21"/>
       <c r="B79" s="8"/>
       <c r="C79" s="6"/>
     </row>
-    <row r="80" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="21"/>
       <c r="B80" s="8"/>
       <c r="C80" s="6"/>
     </row>
-    <row r="81" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="21"/>
       <c r="B81" s="8"/>
       <c r="C81" s="6"/>
     </row>
-    <row r="82" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="21"/>
       <c r="B82" s="8"/>
       <c r="C82" s="6"/>
     </row>
-    <row r="83" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="21"/>
       <c r="B83" s="8"/>
       <c r="C83" s="6"/>
     </row>
-    <row r="84" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="21"/>
       <c r="B84" s="8"/>
       <c r="C84" s="6"/>
     </row>
-    <row r="85" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="21"/>
       <c r="B85" s="8"/>
       <c r="C85" s="6"/>
     </row>
-    <row r="86" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="21"/>
       <c r="B86" s="8"/>
       <c r="C86" s="6"/>
     </row>
-    <row r="87" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="21"/>
       <c r="B87" s="8"/>
       <c r="C87" s="6"/>
     </row>
-    <row r="88" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="21"/>
       <c r="B88" s="8"/>
       <c r="C88" s="6"/>
     </row>
-    <row r="89" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="21"/>
       <c r="B89" s="8"/>
       <c r="C89" s="6"/>
     </row>
-    <row r="90" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="21"/>
       <c r="B90" s="8"/>
       <c r="C90" s="6"/>
     </row>
-    <row r="91" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="21"/>
       <c r="B91" s="8"/>
       <c r="C91" s="6"/>
     </row>
-    <row r="92" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="21"/>
       <c r="B92" s="8"/>
       <c r="C92" s="6"/>
     </row>
-    <row r="93" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="21"/>
       <c r="B93" s="8"/>
       <c r="C93" s="6"/>
     </row>
-    <row r="94" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="21"/>
       <c r="B94" s="8"/>
       <c r="C94" s="6"/>
     </row>
-    <row r="95" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="21"/>
       <c r="B95" s="8"/>
       <c r="C95" s="6"/>
     </row>
-    <row r="96" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="21"/>
       <c r="B96" s="8"/>
       <c r="C96" s="6"/>
     </row>
-    <row r="97" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="21"/>
       <c r="B97" s="8"/>
       <c r="C97" s="6"/>
     </row>
-    <row r="98" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="21"/>
       <c r="B98" s="8"/>
       <c r="C98" s="6"/>
     </row>
-    <row r="99" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="21"/>
       <c r="B99" s="8"/>
       <c r="C99" s="6"/>
     </row>
-    <row r="100" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="21"/>
       <c r="B100" s="8"/>
       <c r="C100" s="6"/>
     </row>
-    <row r="101" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="21"/>
       <c r="B101" s="8"/>
       <c r="C101" s="6"/>
     </row>
-    <row r="102" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="21"/>
       <c r="B102" s="8"/>
       <c r="C102" s="6"/>
     </row>
-    <row r="103" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="21"/>
       <c r="B103" s="8"/>
       <c r="C103" s="6"/>
     </row>
-    <row r="104" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="21"/>
       <c r="B104" s="8"/>
       <c r="C104" s="6"/>
     </row>
-    <row r="105" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="21"/>
       <c r="B105" s="8"/>
       <c r="C105" s="6"/>
     </row>
-    <row r="106" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="21"/>
       <c r="B106" s="8"/>
       <c r="C106" s="6"/>
     </row>
-    <row r="107" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="21"/>
       <c r="B107" s="8"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="21"/>
       <c r="B108" s="8"/>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="21"/>
       <c r="B109" s="8"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="21"/>
       <c r="B110" s="8"/>
       <c r="C110" s="6"/>
     </row>
-    <row r="111" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="21"/>
       <c r="B111" s="8"/>
       <c r="C111" s="6"/>
     </row>
-    <row r="112" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="21"/>
       <c r="B112" s="8"/>
       <c r="C112" s="6"/>
     </row>
-    <row r="113" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="21"/>
       <c r="B113" s="8"/>
       <c r="C113" s="6"/>
     </row>
-    <row r="114" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="21"/>
       <c r="B114" s="8"/>
       <c r="C114" s="6"/>
     </row>
-    <row r="115" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="21"/>
       <c r="B115" s="8"/>
       <c r="C115" s="6"/>
     </row>
-    <row r="116" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="21"/>
       <c r="B116" s="8"/>
       <c r="C116" s="6"/>
     </row>
-    <row r="117" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="21"/>
       <c r="B117" s="8"/>
       <c r="C117" s="6"/>
     </row>
-    <row r="118" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="21"/>
       <c r="B118" s="8"/>
       <c r="C118" s="6"/>
     </row>
-    <row r="119" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="21"/>
       <c r="B119" s="8"/>
       <c r="C119" s="6"/>
     </row>
-    <row r="120" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="21"/>
       <c r="B120" s="8"/>
       <c r="C120" s="6"/>
     </row>
-    <row r="121" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="25"/>
       <c r="B121" s="8"/>
       <c r="C121" s="6"/>
     </row>
-    <row r="122" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="25"/>
       <c r="B122" s="8"/>
       <c r="C122" s="6"/>
     </row>
-    <row r="123" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="25"/>
       <c r="B123" s="8"/>
       <c r="C123" s="6"/>
     </row>
-    <row r="124" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="25"/>
       <c r="B124" s="8"/>
       <c r="C124" s="6"/>
     </row>
-    <row r="125" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="25"/>
       <c r="B125" s="8"/>
       <c r="C125" s="6"/>
     </row>
-    <row r="126" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="25"/>
       <c r="B126" s="8"/>
       <c r="C126" s="6"/>
     </row>
-    <row r="127" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="25"/>
       <c r="B127" s="8"/>
       <c r="C127" s="6"/>
     </row>
-    <row r="128" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="25"/>
       <c r="B128" s="8"/>
       <c r="C128" s="6"/>
     </row>
-    <row r="129" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="25"/>
       <c r="B129" s="8"/>
       <c r="C129" s="6"/>
     </row>
-    <row r="130" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="25"/>
       <c r="B130" s="8"/>
       <c r="C130" s="6"/>
     </row>
-    <row r="131" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="25"/>
       <c r="B131" s="8"/>
       <c r="C131" s="6"/>
     </row>
-    <row r="132" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="25"/>
       <c r="B132" s="8"/>
       <c r="C132" s="6"/>
     </row>
-    <row r="133" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="25"/>
       <c r="B133" s="8"/>
       <c r="C133" s="6"/>
     </row>
-    <row r="134" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="25"/>
       <c r="B134" s="8"/>
       <c r="C134" s="6"/>
     </row>
-    <row r="135" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="25"/>
       <c r="B135" s="8"/>
       <c r="C135" s="6"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="20"/>
       <c r="B136" s="8"/>
       <c r="C136" s="6"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="20"/>
       <c r="B137" s="8"/>
       <c r="C137" s="6"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="20"/>
       <c r="B138" s="8"/>
       <c r="C138" s="6"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="20"/>
       <c r="B139" s="8"/>
       <c r="C139" s="6"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="20"/>
       <c r="B140" s="8"/>
       <c r="C140" s="6"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="20"/>
       <c r="B141" s="8"/>
       <c r="C141" s="6"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="20"/>
       <c r="B142" s="8"/>
       <c r="C142" s="6"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="20"/>
       <c r="B143" s="8"/>
       <c r="C143" s="6"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="20"/>
       <c r="B144" s="8"/>
       <c r="C144" s="6"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="20"/>
       <c r="B145" s="8"/>
       <c r="C145" s="6"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="20"/>
       <c r="B146" s="8"/>
       <c r="C146" s="6"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="20"/>
       <c r="B147" s="8"/>
       <c r="C147" s="6"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="20"/>
       <c r="B148" s="8"/>
       <c r="C148" s="6"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="20"/>
       <c r="B149" s="8"/>
       <c r="C149" s="6"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="20"/>
       <c r="B150" s="8"/>
       <c r="C150" s="6"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="20"/>
       <c r="B151" s="8"/>
       <c r="C151" s="6"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="20"/>
       <c r="B152" s="8"/>
       <c r="C152" s="6"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="20"/>
       <c r="B153" s="8"/>
       <c r="C153" s="6"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="20"/>
       <c r="B154" s="8"/>
       <c r="C154" s="6"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="20"/>
       <c r="B155" s="8"/>
       <c r="C155" s="6"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="20"/>
       <c r="B156" s="8"/>
       <c r="C156" s="6"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="20"/>
       <c r="B157" s="8"/>
       <c r="C157" s="6"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="20"/>
       <c r="B158" s="8"/>
       <c r="C158" s="6"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="20"/>
       <c r="B159" s="8"/>
       <c r="C159" s="6"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="20"/>
       <c r="B160" s="8"/>
       <c r="C160" s="6"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="20"/>
       <c r="B161" s="8"/>
       <c r="C161" s="6"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="20"/>
       <c r="B162" s="8"/>
       <c r="C162" s="6"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="20"/>
       <c r="B163" s="8"/>
       <c r="C163" s="6"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="20"/>
       <c r="B164" s="8"/>
       <c r="C164" s="6"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="20"/>
       <c r="B165" s="8"/>
       <c r="C165" s="6"/>
@@ -4060,14 +4574,1208 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A238"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A41" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A238" sqref="A1:A238"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="27" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="27" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="27" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="27" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="27" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>509</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>